--- a/sequences_processing/16S/16S_results/bi_phylum_16S_R.xlsx
+++ b/sequences_processing/16S/16S_results/bi_phylum_16S_R.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">R_2_1</t>
@@ -434,10 +440,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>2.30339565604469</v>
@@ -445,10 +457,16 @@
       <c r="C2" t="n">
         <v>0.878590456731713</v>
       </c>
+      <c r="D2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2.25123371461528</v>
@@ -456,10 +474,16 @@
       <c r="C3" t="n">
         <v>0.868883426893311</v>
       </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>2.25394764829713</v>
@@ -467,10 +491,16 @@
       <c r="C4" t="n">
         <v>0.865049389532585</v>
       </c>
+      <c r="D4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>2.37585841199482</v>
@@ -478,10 +508,16 @@
       <c r="C5" t="n">
         <v>0.88308726652058</v>
       </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>2.27862910763857</v>
@@ -489,10 +525,16 @@
       <c r="C6" t="n">
         <v>0.869039262205043</v>
       </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>2.35407272767329</v>
@@ -500,10 +542,16 @@
       <c r="C7" t="n">
         <v>0.881411698144369</v>
       </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>2.26505449888949</v>
@@ -511,10 +559,16 @@
       <c r="C8" t="n">
         <v>0.869112603427153</v>
       </c>
+      <c r="D8" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>2.25954173451605</v>
@@ -522,10 +576,16 @@
       <c r="C9" t="n">
         <v>0.862266523145366</v>
       </c>
+      <c r="D9" t="n">
+        <v>30.125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30.2857142857143</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>2.25879833405977</v>
@@ -533,10 +593,16 @@
       <c r="C10" t="n">
         <v>0.860390165090128</v>
       </c>
+      <c r="D10" t="n">
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>2.1766481694642</v>
@@ -544,10 +610,16 @@
       <c r="C11" t="n">
         <v>0.844601363665246</v>
       </c>
+      <c r="D11" t="n">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>2.23721086994314</v>
@@ -555,10 +627,16 @@
       <c r="C12" t="n">
         <v>0.856006611476388</v>
       </c>
+      <c r="D12" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>2.24637637022137</v>
@@ -566,10 +644,16 @@
       <c r="C13" t="n">
         <v>0.861058413188684</v>
       </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>2.27114074127111</v>
@@ -577,10 +661,16 @@
       <c r="C14" t="n">
         <v>0.873825280457226</v>
       </c>
+      <c r="D14" t="n">
+        <v>24</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>2.28249374712244</v>
@@ -588,10 +678,16 @@
       <c r="C15" t="n">
         <v>0.872376406959212</v>
       </c>
+      <c r="D15" t="n">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>2.21270860916967</v>
@@ -599,10 +695,16 @@
       <c r="C16" t="n">
         <v>0.857700241660942</v>
       </c>
+      <c r="D16" t="n">
+        <v>28</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>2.25077327447921</v>
@@ -610,10 +712,16 @@
       <c r="C17" t="n">
         <v>0.866783435202109</v>
       </c>
+      <c r="D17" t="n">
+        <v>26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>2.21333813800605</v>
@@ -621,10 +729,16 @@
       <c r="C18" t="n">
         <v>0.861281761529405</v>
       </c>
+      <c r="D18" t="n">
+        <v>26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>2.29489540797055</v>
@@ -632,10 +746,16 @@
       <c r="C19" t="n">
         <v>0.876988314198528</v>
       </c>
+      <c r="D19" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29.1904761904762</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>2.23037278231639</v>
@@ -643,10 +763,16 @@
       <c r="C20" t="n">
         <v>0.860791770618788</v>
       </c>
+      <c r="D20" t="n">
+        <v>26</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>2.25175585715699</v>
@@ -654,10 +780,16 @@
       <c r="C21" t="n">
         <v>0.8660956120256</v>
       </c>
+      <c r="D21" t="n">
+        <v>22</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>2.2194327101555</v>
@@ -665,10 +797,16 @@
       <c r="C22" t="n">
         <v>0.861425696378629</v>
       </c>
+      <c r="D22" t="n">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>2.27276210561801</v>
@@ -676,10 +814,16 @@
       <c r="C23" t="n">
         <v>0.866615075181707</v>
       </c>
+      <c r="D23" t="n">
+        <v>24</v>
+      </c>
+      <c r="E23" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
         <v>2.27178009472557</v>
@@ -687,16 +831,28 @@
       <c r="C24" t="n">
         <v>0.86696853491919</v>
       </c>
+      <c r="D24" t="n">
+        <v>27</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>2.15771164898736</v>
       </c>
       <c r="C25" t="n">
         <v>0.850428755197769</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25.1707317073171</v>
       </c>
     </row>
   </sheetData>
